--- a/Tai/Tia_Metadata.xlsx
+++ b/Tai/Tia_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B073224-A085-4FF7-BBF8-B6EEAFE4FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{34CC7731-6DCE-4FDE-B1B0-CEF0D88E3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52BA6A10-123A-43EE-869B-F79B31AC3FB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{52BA6A10-123A-43EE-869B-F79B31AC3FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="25">
-  <si>
-    <t>ReplicatesGenotypesTreatmentAge of maturation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="29">
   <si>
     <t>Age_maturity</t>
   </si>
@@ -117,6 +114,21 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>LRV-0_1</t>
+  </si>
+  <si>
+    <t>Genotypes</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Replicates</t>
+  </si>
+  <si>
+    <t>Age_maturation</t>
   </si>
 </sst>
 </file>
@@ -473,36 +485,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42034C1-5798-4672-8953-A9046EE04A5F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -510,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -543,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -567,7 +585,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
     </row>
@@ -576,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -609,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -642,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -675,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -708,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -741,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -774,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -807,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -821,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -854,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -887,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -914,10 +932,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -925,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -958,10 +976,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -996,35 +1014,41 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1065,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1098,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1122,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J17" si="0">(F4+I4)</f>
+        <f t="shared" ref="J4:J5" si="0">(F4+I4)</f>
         <v>52</v>
       </c>
     </row>
@@ -1131,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1164,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1188,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J17" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
     </row>
@@ -1197,10 +1221,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1221,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -1230,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1254,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -1263,10 +1287,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1287,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -1296,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1320,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -1329,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1353,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1362,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1386,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1395,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1419,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1428,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1452,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1461,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1485,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1494,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -1518,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -1527,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1551,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -1565,35 +1589,41 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1601,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1634,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1658,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
     </row>
@@ -1667,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1700,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1733,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1766,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1799,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1832,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1865,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1892,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1906,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1939,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1972,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2005,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2016,10 +2046,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -2049,10 +2079,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2087,35 +2117,41 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2123,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -2156,10 +2192,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -2189,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2222,10 +2258,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2255,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2279,7 +2315,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J12" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
     </row>
@@ -2288,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2312,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -2321,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -2345,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -2354,10 +2390,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2378,7 +2414,7 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -2387,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2411,7 +2447,7 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -2420,10 +2456,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -2444,7 +2480,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -2453,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2477,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2486,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2497,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2530,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -2563,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -2596,10 +2632,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2634,35 +2670,41 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2670,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -2703,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -2727,7 +2769,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
     </row>
@@ -2736,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2769,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2802,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2835,10 +2877,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2868,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -2901,10 +2943,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2934,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2967,10 +3009,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -2981,10 +3023,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -3005,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" ref="J12:J17" si="1">(F12+I12)</f>
         <v>17</v>
       </c>
     </row>
@@ -3014,10 +3056,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -3038,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -3047,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -3071,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -3080,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3104,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -3113,10 +3155,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -3137,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -3146,10 +3188,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3170,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -3184,35 +3226,44 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3220,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -3253,10 +3304,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -3277,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
     </row>
@@ -3286,10 +3337,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -3319,10 +3370,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -3352,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3376,7 +3427,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J17" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
     </row>
@@ -3385,10 +3436,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3409,7 +3460,7 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -3418,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3442,7 +3493,7 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -3451,10 +3502,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -3475,7 +3526,7 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -3484,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -3508,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -3517,10 +3568,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -3541,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -3550,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -3574,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3583,10 +3634,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -3607,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -3616,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -3640,7 +3691,7 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -3649,10 +3700,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -3673,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -3682,10 +3733,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -3706,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -3715,10 +3766,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -3739,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -3752,36 +3803,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA5DD5B-DA17-4C47-9DB1-1A2DE71E5699}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3789,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -3822,10 +3879,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -3855,10 +3912,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -3888,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -3921,10 +3978,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3945,7 +4002,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J13" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
     </row>
@@ -3954,10 +4011,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3978,7 +4035,7 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -3987,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -4011,7 +4068,7 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -4020,10 +4077,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -4044,7 +4101,7 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -4053,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -4077,7 +4134,7 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -4086,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4110,7 +4167,7 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -4119,10 +4176,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -4143,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -4152,10 +4209,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -4176,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -4185,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -4203,10 +4260,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -4221,16 +4278,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -4242,10 +4299,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>8</v>

--- a/Tai/Tia_Metadata.xlsx
+++ b/Tai/Tia_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{34CC7731-6DCE-4FDE-B1B0-CEF0D88E3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{34CC7731-6DCE-4FDE-B1B0-CEF0D88E3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18EADBE-9A9D-4AAB-94FB-2D7468E2C1D8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{52BA6A10-123A-43EE-869B-F79B31AC3FB5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="31">
   <si>
     <t>Age_maturity</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Age_maturation</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>exclude</t>
   </si>
 </sst>
 </file>
@@ -483,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42034C1-5798-4672-8953-A9046EE04A5F}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -523,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -556,7 +562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -589,7 +595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,7 +628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -655,7 +661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -688,7 +694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -721,7 +727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -754,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -787,7 +793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -820,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -833,8 +839,11 @@
       <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -867,7 +876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -900,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -927,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -937,8 +946,11 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1014,7 +1026,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,7 +1601,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2117,7 +2129,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2667,15 +2679,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F5938C-5964-47CC-92DA-F67B5FC064A9}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3017,8 +3029,11 @@
       <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3084,7 +3099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3117,7 +3132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3801,15 +3816,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA5DD5B-DA17-4C47-9DB1-1A2DE71E5699}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3874,7 +3889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3973,7 +3988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4006,7 +4021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4039,7 +4054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4072,7 +4087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4105,7 +4120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4138,7 +4153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4204,7 +4219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4237,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4254,8 +4269,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4273,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>

--- a/Tai/Tia_Metadata.xlsx
+++ b/Tai/Tia_Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\200240958\Desktop\GitHubProjects\ChronicExposure\Tai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B073224-A085-4FF7-BBF8-B6EEAFE4FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA27D8-7F5A-4C0C-9989-2F980D1AB739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52BA6A10-123A-43EE-869B-F79B31AC3FB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{52BA6A10-123A-43EE-869B-F79B31AC3FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="28">
   <si>
     <t>ReplicatesGenotypesTreatmentAge of maturation</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Day_brood interval</t>
+  </si>
+  <si>
+    <t>Day_interval</t>
+  </si>
+  <si>
+    <t>Day_ brood interval</t>
   </si>
 </sst>
 </file>
@@ -471,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42034C1-5798-4672-8953-A9046EE04A5F}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +513,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -537,8 +549,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -567,11 +582,14 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -603,8 +621,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,8 +657,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -669,8 +693,11 @@
         <f>(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -702,8 +729,11 @@
         <f>(F7+I7)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -735,8 +765,11 @@
         <f>(F8+I8)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -768,8 +801,11 @@
         <f>(F9+I9)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -801,8 +837,11 @@
         <f>(F10+I10)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -816,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -848,8 +887,11 @@
         <f>(F12+I12)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -881,8 +923,11 @@
         <f>(F13+I13)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -909,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -920,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -952,8 +997,11 @@
         <f>(F16+I16)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -984,6 +1032,9 @@
       <c r="J17">
         <f>(F17+I17)</f>
         <v>23</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -993,15 +1044,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9884E5-3085-460D-964B-080D59FFBE10}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1077,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1059,8 +1113,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1092,8 +1149,11 @@
         <f>(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1122,11 +1182,14 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J17" si="0">(F4+I4)</f>
+        <f t="shared" ref="J4:J5" si="0">(F4+I4)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1158,8 +1221,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1188,11 +1254,14 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J17" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1221,11 +1290,14 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1254,11 +1326,14 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1287,11 +1362,14 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1320,11 +1398,14 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1353,11 +1434,14 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1386,11 +1470,14 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1419,11 +1506,14 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1452,11 +1542,14 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1485,11 +1578,14 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1518,11 +1614,14 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1551,8 +1650,11 @@
         <v>11</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1562,15 +1664,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C28442-DD13-40D7-AA91-81015BD29E98}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1697,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1628,8 +1733,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1658,11 +1766,14 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1694,8 +1805,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1727,8 +1841,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1760,8 +1877,11 @@
         <f>(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1793,8 +1913,11 @@
         <f>(F7+I7)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1826,8 +1949,11 @@
         <f>(F8+I8)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1859,8 +1985,11 @@
         <f>(F9+I9)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1887,7 +2016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1901,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1933,8 +2062,11 @@
         <f>(F12+I12)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1966,8 +2098,11 @@
         <f>(F13+I13)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1999,8 +2134,11 @@
         <f>(F14+I14)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2011,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2043,8 +2181,11 @@
         <f>(F16+I16)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2075,6 +2216,9 @@
       <c r="J17">
         <f>(F17+I17)</f>
         <v>28</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2084,15 +2228,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EBCCFF-0435-42C6-BDFA-FB0BCE3A96B4}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +2261,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2150,8 +2297,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2183,8 +2333,11 @@
         <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2216,8 +2369,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2249,8 +2405,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2279,11 +2438,14 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J12" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2312,11 +2474,14 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2345,11 +2510,14 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2378,11 +2546,14 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2411,11 +2582,14 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2444,11 +2618,14 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2477,11 +2654,14 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2492,7 +2672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2524,8 +2704,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2557,8 +2740,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2590,8 +2776,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2622,6 +2811,9 @@
       <c r="J17">
         <f t="shared" si="0"/>
         <v>17</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2631,15 +2823,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F5938C-5964-47CC-92DA-F67B5FC064A9}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2664,8 +2856,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2697,8 +2892,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2727,11 +2925,14 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2763,8 +2964,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2796,8 +3000,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2829,8 +3036,11 @@
         <f>(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2862,8 +3072,11 @@
         <f>(F7+I7)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2895,8 +3108,11 @@
         <f>(F8+I8)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2928,8 +3144,11 @@
         <f>(F9+I9)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2961,8 +3180,11 @@
         <f>(F10+I10)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2976,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3005,11 +3227,14 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" ref="J12:J17" si="1">(F12+I12)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3038,11 +3263,14 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3071,11 +3299,14 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3104,11 +3335,14 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3137,11 +3371,14 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3170,8 +3407,11 @@
         <v>8</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3181,15 +3421,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EC2BFA-F622-41CC-81FC-AF536E230620}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3214,8 +3454,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3247,8 +3490,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3277,11 +3523,14 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="0">(F3+I3)</f>
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3313,8 +3562,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3346,8 +3598,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3376,11 +3631,14 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J17" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3409,11 +3667,14 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3442,11 +3703,14 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3475,11 +3739,14 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3508,11 +3775,14 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3541,11 +3811,14 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3574,11 +3847,14 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3607,11 +3883,14 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3640,11 +3919,14 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3673,11 +3955,14 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3706,11 +3991,14 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3739,8 +4027,11 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3750,15 +4041,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA5DD5B-DA17-4C47-9DB1-1A2DE71E5699}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3783,8 +4074,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3816,8 +4110,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3849,8 +4146,11 @@
         <f t="shared" ref="J3:J16" si="0">(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3882,8 +4182,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3915,8 +4218,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3945,11 +4251,14 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J13" si="1">(F6+I6)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3978,11 +4287,14 @@
         <v>28</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4011,11 +4323,14 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4044,11 +4359,14 @@
         <v>28</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4077,11 +4395,14 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4110,11 +4431,14 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4143,11 +4467,14 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4176,11 +4503,14 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4198,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4216,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4237,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4267,6 +4597,9 @@
       </c>
       <c r="J17">
         <v>4</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
